--- a/testcode/leader数量对gather开销的影响.xlsx
+++ b/testcode/leader数量对gather开销的影响.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作空间\GLEX-Alltoall-paper\testcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BFC6A-62AD-443B-81BF-562DE228FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61342C83-55AB-4DF5-A2DF-3AA0D5D368F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HPC-广州" sheetId="1" r:id="rId1"/>
+    <sheet name="HPC-天津1" sheetId="2" r:id="rId1"/>
+    <sheet name="HPC-广州" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>leaderN=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +67,10 @@
   </si>
   <si>
     <t>Improvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPC-天津1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -283,69 +289,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HPC-广州'!$G$2:$G$21</c:f>
+              <c:f>'HPC-天津1'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8.016098998822635E-3</c:v>
+                  <c:v>9.9003264013860452E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7444079007141171E-2</c:v>
+                  <c:v>1.2935739021465243E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4915280436077306E-2</c:v>
+                  <c:v>2.5945770636684887E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5316953066197198E-2</c:v>
+                  <c:v>5.1908200887440985E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12785722609752442</c:v>
+                  <c:v>1.0474596035883675E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25439624368046443</c:v>
+                  <c:v>2.0750727829076686E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49234319782676633</c:v>
+                  <c:v>4.1254280534479285E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94579096849672506</c:v>
+                  <c:v>8.1592541931714058E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6568294664316077</c:v>
+                  <c:v>0.15733422960580015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6525490957954894</c:v>
+                  <c:v>0.28423883186352467</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8262345234527348</c:v>
+                  <c:v>0.51052426579418864</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.156194065372949</c:v>
+                  <c:v>0.77812166066410737</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3121092213723307</c:v>
+                  <c:v>0.99288068872613688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7856406362573507</c:v>
+                  <c:v>0.86521882632517</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3265811787041653</c:v>
+                  <c:v>0.89945787679849942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.216300921854776</c:v>
+                  <c:v>0.90728849856150906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6353320853218021</c:v>
+                  <c:v>0.91707507634450136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7472495770539362</c:v>
+                  <c:v>0.92391995036364505</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1258960031450034</c:v>
+                  <c:v>0.92466509774527261</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.433798784371727</c:v>
+                  <c:v>0.93676874685923806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,7 +359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDA3-43B6-97F8-A3CCB1513C1A}"/>
+              <c16:uniqueId val="{00000000-BFE8-480D-8E61-66255C31D846}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -466,69 +472,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HPC-广州'!$H$2:$H$21</c:f>
+              <c:f>'HPC-天津1'!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.5524874163617619E-2</c:v>
+                  <c:v>1.8978802061967767E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1175157296529327E-2</c:v>
+                  <c:v>2.5578343669026889E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.230807611645444E-2</c:v>
+                  <c:v>5.2404070868317717E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11848195001542734</c:v>
+                  <c:v>1.0336091194471268E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23369658241570149</c:v>
+                  <c:v>2.0769456999043333E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45965660419705984</c:v>
+                  <c:v>4.0463779187892478E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89368897616320297</c:v>
+                  <c:v>8.2544864625212863E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7273893408775414</c:v>
+                  <c:v>0.16125772627655804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.013962386789387</c:v>
+                  <c:v>0.30291377015234433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7584794783795683</c:v>
+                  <c:v>0.54262735768341219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8515033663697578</c:v>
+                  <c:v>0.91118825050632379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0988838585842906</c:v>
+                  <c:v>1.2326288533757985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.464691088608269</c:v>
+                  <c:v>1.4244505021780671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.73984989904946</c:v>
+                  <c:v>1.1569472487945891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.014608047731761</c:v>
+                  <c:v>1.1910380457108889</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.094183514226012</c:v>
+                  <c:v>1.2002586922306482</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.456612431827081</c:v>
+                  <c:v>1.2086402581934146</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.575475281975425</c:v>
+                  <c:v>1.2095319435265846</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5101745899780816</c:v>
+                  <c:v>1.2075050471002715</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9361167894739442</c:v>
+                  <c:v>1.2594561969822085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +542,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EDA3-43B6-97F8-A3CCB1513C1A}"/>
+              <c16:uniqueId val="{00000001-BFE8-480D-8E61-66255C31D846}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -649,69 +655,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'HPC-广州'!$I$2:$I$21</c:f>
+              <c:f>'HPC-天津1'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.6595192087930354E-2</c:v>
+                  <c:v>2.4809086327867583E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6834369993228717E-2</c:v>
+                  <c:v>4.5810542389663998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11372007536916454</c:v>
+                  <c:v>9.3080472795474441E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21408486039534619</c:v>
+                  <c:v>1.866750929729467E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42586078427974838</c:v>
+                  <c:v>3.7429522657837264E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83639346159212891</c:v>
+                  <c:v>7.3995790766784988E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6259882893909823</c:v>
+                  <c:v>0.1484681070860053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0425632010300343</c:v>
+                  <c:v>0.28202244612242089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3088226558154359</c:v>
+                  <c:v>0.51370029446422927</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5412480749305448</c:v>
+                  <c:v>0.88111483829332404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.229584624691123</c:v>
+                  <c:v>1.3756290570572463</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.648325960419092</c:v>
+                  <c:v>1.5748530393887481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.069145186501977</c:v>
+                  <c:v>1.6261278166338415</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.780914278547689</c:v>
+                  <c:v>1.4225727458344544</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.677179657773358</c:v>
+                  <c:v>1.4574655235121192</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.859580662847636</c:v>
+                  <c:v>1.4720299485259709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.559623588767018</c:v>
+                  <c:v>1.4692540415569555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.859981222653275</c:v>
+                  <c:v>1.4672474051443805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.974420552336609</c:v>
+                  <c:v>1.4552186659727644</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.089719432566538</c:v>
+                  <c:v>1.215872449903975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +725,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EDA3-43B6-97F8-A3CCB1513C1A}"/>
+              <c16:uniqueId val="{00000002-BFE8-480D-8E61-66255C31D846}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -832,69 +838,2036 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'HPC-天津1'!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.2788495020544609E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0629709633308049E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5883151295805597E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1680146025673088E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3542625477035097E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12469082246931057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24259893586567033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49962389965236131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8085673394857622</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.294702373798819</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.918756274924335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1975814733312378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3391703629894298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2495717327526563</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2753703854395528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2558612374784306</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2472395086863926</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1608498005261345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9058701377384391</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6913901466223922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BFE8-480D-8E61-66255C31D846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1394845471"/>
+        <c:axId val="1394833407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1394845471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+                  <a:t>Size of single message</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3762285453616902"/>
+              <c:y val="0.91203410831287812"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394833407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1394833407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>Gather Bandwidth (GB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394845471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3333333333333329E-2"/>
+          <c:y val="6.7113225430154549E-2"/>
+          <c:w val="0.44166666666666671"/>
+          <c:h val="0.22918307086614179"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1097820196056279"/>
+          <c:y val="5.0125313283208017E-2"/>
+          <c:w val="0.86734420206207852"/>
+          <c:h val="0.68769846643604426"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-天津1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$H$44:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.9007010860350112E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4138643825067295E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.766058791507897E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.109832886378695E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1192350179508521E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6510775405997585E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0437610962209442E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9051414758321334E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5758036657987756E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7832480708528238E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4195525303206514E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3417138361635067E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1021180181259233</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11694025436261463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11658753947551989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10631656261476304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10087979020387436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10624762401005956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11184064871497357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1806123277658974E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C16-4095-86CF-CC55C87F48EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-天津1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$I$44:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.1564892956712837E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4699176613668918E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0740738427328416E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4230885157065414E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2606572006567617E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2487075906099056E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0630549923774489E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3826280691580958E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10103305725686038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11828309962211953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5928672208078991E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24258575664037749</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29119221476151702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25774324643303037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25837112052693634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23620692148610936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23348528384499603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25435873245719898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26116008350121689</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52961173568835396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C16-4095-86CF-CC55C87F48EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-天津1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$J$44:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.4933855066399314E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0253127932225288E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9236043865430866E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7181928058785028E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6019571491370448E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9761319999457116E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7481672198612199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5933375075721623E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12104859140481471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16386186705192332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9775491063901541E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10505106649065513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.17901456324094E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4986894391023442E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5153727362066588E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1316446334473343E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0527097591426378E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.700465990909231E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2244129169854184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3064921095308526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C16-4095-86CF-CC55C87F48EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="247140304"/>
+        <c:axId val="270443808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="247140304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Size of single message</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41911960389403441"/>
+              <c:y val="0.86988422776143981"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270443808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="270443808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>Improvement</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247140304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36422374059137802"/>
+          <c:y val="5.2744961903685487E-2"/>
+          <c:w val="0.50236973653402484"/>
+          <c:h val="7.6897325633338898E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10447209086421998"/>
+          <c:y val="4.7774158523344191E-2"/>
+          <c:w val="0.86500415249817397"/>
+          <c:h val="0.72853847666435845"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-广州'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.7394885795604622E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1624492563654691E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.502509025976565E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8639764907802939E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6042618912142261E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18754292516902979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36435770390599287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68281840408979777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2047974233336356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0215929421926089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1721609830394715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.569882538343264</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8862467722016394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6796505726819859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4197220464888476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3113240481034296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6517830899844581</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7300535926318155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0651647048616129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.421770177470175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDA3-43B6-97F8-A3CCB1513C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-广州'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.1577712274275233E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.09112741173972E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.182550920379044E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0337459170944606E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16018563178683631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31436758084322552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6135395108360524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1512274184746329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.077482945467763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5270057907993024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5300052456969109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1428797741954533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.462741967671123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.14431470354835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.926916022897794</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.750674538417504</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.341116453882172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.885860739946102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7267681247644724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4709843475163096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDA3-43B6-97F8-A3CCB1513C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-广州'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.6849458425935882E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9484541647708433E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9018239529182993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15170744956665597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30080341537211203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59379960712965441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1589446134257622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.181309842122197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8882615273561489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6733986276982291</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.29315449312465</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.612448721721218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.681673388202334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.59789068136347</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.025941242474453</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.021533662263248</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.786606445542226</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.832742361373066</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.329591569457557</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.965888879508261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDA3-43B6-97F8-A3CCB1513C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'HPC-广州'!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.8940888583008338E-2</c:v>
+                  <c:v>2.8994042630303304E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10001367374445724</c:v>
+                  <c:v>7.1790797130237671E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20031690760773882</c:v>
+                  <c:v>0.14356918029569082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38044757080758418</c:v>
+                  <c:v>0.2756850621233673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75187003808911923</c:v>
+                  <c:v>0.54794031874002269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4696894491654655</c:v>
+                  <c:v>1.0779089198542087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8495151963128831</c:v>
+                  <c:v>2.0972414823032448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2853317848962877</c:v>
+                  <c:v>3.9266469876293688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9919871208517801</c:v>
+                  <c:v>6.8223079699081142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.22352292331543</c:v>
+                  <c:v>11.120880923459382</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.489913339218354</c:v>
+                  <c:v>14.938256831068182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.829364591079557</c:v>
+                  <c:v>16.527583380619127</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.578809723386421</c:v>
+                  <c:v>17.614935352189178</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.715857658488243</c:v>
+                  <c:v>16.759071511909774</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.097044716496598</c:v>
+                  <c:v>17.120074015619473</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.100588121375207</c:v>
+                  <c:v>17.244956709140933</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.151723891163556</c:v>
+                  <c:v>17.341329446907913</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.965962330931614</c:v>
+                  <c:v>17.5399097419456</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.175032694793146</c:v>
+                  <c:v>15.859293318786408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.183679552415175</c:v>
+                  <c:v>12.818410230452596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,7 +3211,991 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14513240430099075"/>
+          <c:y val="5.0125313283208017E-2"/>
+          <c:w val="0.83199381736671563"/>
+          <c:h val="0.71988776522551901"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-天津1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-广州'!$H$44:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.18714769841427129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11545225100454649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1158545293229335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10994133714163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10426701291821522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10287541017834848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10483432767071314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10143899368473208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0174358596284337E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0289764072510872E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3537741987110152E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0731138616296213E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8458183432686646E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4820034167479377E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1233328812333221E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8655745560712405E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7563195376668879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.122819146234E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2217121149936465E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33076212722038117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E5C-493E-BA41-69FE4A2743E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-天津1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-广州'!$I$44:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.8274630719151517E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6476445237033819E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6658283052296396E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3829122142631204E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9225370663054038E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4609674008891827E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5435823334391195E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7098997758700779E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6533904808956118E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0685814017475827E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1569338064765412E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5506882707198241E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12853301228678149</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19840095550484879</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18217817011787787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15770427040492946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1149793493199789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1228035391211756E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5071139828755206E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38588849845440787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E5C-493E-BA41-69FE4A2743E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-天津1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-广州'!$J$44:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.0507522488902908E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10539530819132684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10447170889214885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10719093021392523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10701678589276238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11295913722469277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1064524984177576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10300930487529611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4728906200917257E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6054235384403645E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11189608743861877</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30472514892479402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43698124746030015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40221010777870525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41271671856379499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32019902747936224</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15889190128051051</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15265307434071063</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23098666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30170254293652915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E5C-493E-BA41-69FE4A2743E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="247140304"/>
+        <c:axId val="270443808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="247140304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Size of single message</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270443808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="270443808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+                  <a:t>Improvement</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247140304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36422374059137802"/>
+          <c:y val="5.2744961903685487E-2"/>
+          <c:w val="0.50236973653402484"/>
+          <c:h val="7.6897325633338898E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1794,18 +4751,1619 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CFFFAE-F7CD-4F3A-839D-B8CBE70DE7BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550545</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADFC260-6A04-4E09-9B79-1A336D012719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:colOff>166686</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1827,6 +6385,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>597274</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>532504</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139064</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD66E172-1221-4950-80DB-A0E2D70E2F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2097,11 +6693,1930 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4419A941-295E-4468-8151-071CA191D623}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>193.93299999999999</v>
+      </c>
+      <c r="C2">
+        <v>202.33099999999999</v>
+      </c>
+      <c r="D2">
+        <v>309.56400000000002</v>
+      </c>
+      <c r="E2">
+        <v>358.97500000000002</v>
+      </c>
+      <c r="F2">
+        <f>A2*24</f>
+        <v>192</v>
+      </c>
+      <c r="G2">
+        <f>$F2/(1000*B2)</f>
+        <v>9.9003264013860452E-4</v>
+      </c>
+      <c r="H2">
+        <f>2*$F2/(1000*C2)</f>
+        <v>1.8978802061967767E-3</v>
+      </c>
+      <c r="I2">
+        <f>4*$F2/(1000*D2)</f>
+        <v>2.4809086327867583E-3</v>
+      </c>
+      <c r="J2">
+        <f>8*$F2/(1000*E2)</f>
+        <v>4.2788495020544609E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>296.85199999999998</v>
+      </c>
+      <c r="C3">
+        <v>300.25400000000002</v>
+      </c>
+      <c r="D3">
+        <v>335.29399999999998</v>
+      </c>
+      <c r="E3">
+        <v>381.00099999999998</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">A3*24</f>
+        <v>384</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">$F3/(1000*B3)</f>
+        <v>1.2935739021465243E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="2">2*$F3/(1000*C3)</f>
+        <v>2.5578343669026889E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="3">4*$F3/(1000*D3)</f>
+        <v>4.5810542389663998E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="4">8*$F3/(1000*E3)</f>
+        <v>8.0629709633308049E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>296.00200000000001</v>
+      </c>
+      <c r="C4">
+        <v>293.10700000000003</v>
+      </c>
+      <c r="D4">
+        <v>330.03699999999998</v>
+      </c>
+      <c r="E4">
+        <v>386.82499999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2.5945770636684887E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>5.2404070868317717E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>9.3080472795474441E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>1.5883151295805597E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>295.90699999999998</v>
+      </c>
+      <c r="C5">
+        <v>297.21100000000001</v>
+      </c>
+      <c r="D5">
+        <v>329.12799999999999</v>
+      </c>
+      <c r="E5">
+        <v>387.87700000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>5.1908200887440985E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.0336091194471268E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.866750929729467E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>3.1680146025673088E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>293.28100000000001</v>
+      </c>
+      <c r="C6">
+        <v>295.81900000000002</v>
+      </c>
+      <c r="D6">
+        <v>328.29700000000003</v>
+      </c>
+      <c r="E6">
+        <v>386.76400000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3072</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.0474596035883675E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2.0769456999043333E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3.7429522657837264E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>6.3542625477035097E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>296.08600000000001</v>
+      </c>
+      <c r="C7">
+        <v>303.67899999999997</v>
+      </c>
+      <c r="D7">
+        <v>332.12700000000001</v>
+      </c>
+      <c r="E7">
+        <v>394.19099999999997</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6144</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.0750727829076686E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>4.0463779187892478E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>7.3995790766784988E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.12469082246931057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>512</v>
+      </c>
+      <c r="B8">
+        <v>297.86</v>
+      </c>
+      <c r="C8">
+        <v>297.72899999999998</v>
+      </c>
+      <c r="D8">
+        <v>331.06099999999998</v>
+      </c>
+      <c r="E8">
+        <v>405.21199999999999</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>12288</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4.1254280534479285E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>8.2544864625212863E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.1484681070860053</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.24259893586567033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <v>301.20400000000001</v>
+      </c>
+      <c r="C9">
+        <v>304.80399999999997</v>
+      </c>
+      <c r="D9">
+        <v>348.56799999999998</v>
+      </c>
+      <c r="E9">
+        <v>393.512</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>24576</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>8.1592541931714058E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.16125772627655804</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.28202244612242089</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.49962389965236131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2048</v>
+      </c>
+      <c r="B10">
+        <v>312.40499999999997</v>
+      </c>
+      <c r="C10">
+        <v>324.52800000000002</v>
+      </c>
+      <c r="D10">
+        <v>382.72899999999998</v>
+      </c>
+      <c r="E10">
+        <v>486.31200000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>49152</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.15733422960580015</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.30291377015234433</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.51370029446422927</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.8085673394857622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4096</v>
+      </c>
+      <c r="B11">
+        <v>345.85</v>
+      </c>
+      <c r="C11">
+        <v>362.32600000000002</v>
+      </c>
+      <c r="D11">
+        <v>446.27100000000002</v>
+      </c>
+      <c r="E11">
+        <v>607.423</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>98304</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.28423883186352467</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.54262735768341219</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.88111483829332404</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1.294702373798819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8192</v>
+      </c>
+      <c r="B12">
+        <v>385.11</v>
+      </c>
+      <c r="C12">
+        <v>431.54199999999997</v>
+      </c>
+      <c r="D12">
+        <v>571.68899999999996</v>
+      </c>
+      <c r="E12">
+        <v>819.73099999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>196608</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.51052426579418864</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.91118825050632379</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1.3756290570572463</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1.918756274924335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>16384</v>
+      </c>
+      <c r="B13">
+        <v>505.34</v>
+      </c>
+      <c r="C13">
+        <v>638.01199999999994</v>
+      </c>
+      <c r="D13">
+        <v>998.73699999999997</v>
+      </c>
+      <c r="E13">
+        <v>1431.45</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>393216</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.77812166066410737</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.2326288533757985</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1.5748530393887481</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>2.1975814733312378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>32768</v>
+      </c>
+      <c r="B14">
+        <v>792.07100000000003</v>
+      </c>
+      <c r="C14">
+        <v>1104.19</v>
+      </c>
+      <c r="D14">
+        <v>1934.49</v>
+      </c>
+      <c r="E14">
+        <v>2689.61</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>786432</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.99288068872613688</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.4244505021780671</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1.6261278166338415</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>2.3391703629894298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>65536</v>
+      </c>
+      <c r="B15">
+        <v>1817.88</v>
+      </c>
+      <c r="C15">
+        <v>2718.99</v>
+      </c>
+      <c r="D15">
+        <v>4422.59</v>
+      </c>
+      <c r="E15">
+        <v>5593.47</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1572864</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.86521882632517</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.1569472487945891</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.4225727458344544</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>2.2495717327526563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>131072</v>
+      </c>
+      <c r="B16">
+        <v>3497.36</v>
+      </c>
+      <c r="C16">
+        <v>5282.33</v>
+      </c>
+      <c r="D16">
+        <v>8633.42</v>
+      </c>
+      <c r="E16">
+        <v>11060.1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3145728</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.89945787679849942</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.1910380457108889</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.4574655235121192</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>2.2753703854395528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>262144</v>
+      </c>
+      <c r="B17">
+        <v>6934.35</v>
+      </c>
+      <c r="C17">
+        <v>10483.5</v>
+      </c>
+      <c r="D17">
+        <v>17096</v>
+      </c>
+      <c r="E17">
+        <v>22311.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6291456</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.90728849856150906</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.2002586922306482</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1.4720299485259709</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>2.2558612374784306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>524288</v>
+      </c>
+      <c r="B18">
+        <v>13720.7</v>
+      </c>
+      <c r="C18">
+        <v>20821.599999999999</v>
+      </c>
+      <c r="D18">
+        <v>34256.6</v>
+      </c>
+      <c r="E18">
+        <v>44794.2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>12582912</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.91707507634450136</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.2086402581934146</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.4692540415569555</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>2.2472395086863926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1048576</v>
+      </c>
+      <c r="B19">
+        <v>27238.1</v>
+      </c>
+      <c r="C19">
+        <v>41612.5</v>
+      </c>
+      <c r="D19">
+        <v>68606.899999999994</v>
+      </c>
+      <c r="E19">
+        <v>93170.1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>25165824</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.92391995036364505</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1.2095319435265846</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1.4672474051443805</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>2.1608498005261345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2097152</v>
+      </c>
+      <c r="B20">
+        <v>54432.3</v>
+      </c>
+      <c r="C20">
+        <v>83364.7</v>
+      </c>
+      <c r="D20">
+        <v>138348</v>
+      </c>
+      <c r="E20">
+        <v>211270</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>50331648</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.92466509774527261</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.2075050471002715</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1.4552186659727644</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>1.9058701377384391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4194304</v>
+      </c>
+      <c r="B21">
+        <v>107458</v>
+      </c>
+      <c r="C21">
+        <v>159852</v>
+      </c>
+      <c r="D21">
+        <v>331164</v>
+      </c>
+      <c r="E21">
+        <v>476121</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>100663296</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.93676874685923806</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.2594561969822085</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1.215872449903975</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>1.6913901466223922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>187.91900000000001</v>
+      </c>
+      <c r="C23">
+        <v>200.54599999999999</v>
+      </c>
+      <c r="D23">
+        <v>291.61099999999999</v>
+      </c>
+      <c r="E23">
+        <v>353.69299999999998</v>
+      </c>
+      <c r="F23">
+        <f>A23*24</f>
+        <v>192</v>
+      </c>
+      <c r="G23">
+        <f>$F23/(1000*B23)</f>
+        <v>1.0217168035164086E-3</v>
+      </c>
+      <c r="H23">
+        <f>2*$F23/(1000*C23)</f>
+        <v>1.9147726706092367E-3</v>
+      </c>
+      <c r="I23">
+        <f>4*$F23/(1000*D23)</f>
+        <v>2.6336455071996599E-3</v>
+      </c>
+      <c r="J23">
+        <f>8*$F23/(1000*E23)</f>
+        <v>4.3427492203690771E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>280.25799999999998</v>
+      </c>
+      <c r="C24">
+        <v>296.06799999999998</v>
+      </c>
+      <c r="D24">
+        <v>314.91899999999998</v>
+      </c>
+      <c r="E24">
+        <v>369.81299999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F42" si="5">A24*24</f>
+        <v>384</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G42" si="6">$F24/(1000*B24)</f>
+        <v>1.3701660612721136E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H42" si="7">2*$F24/(1000*C24)</f>
+        <v>2.5939986759798426E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I42" si="8">4*$F24/(1000*D24)</f>
+        <v>4.8774446762500836E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J42" si="9">8*$F24/(1000*E24)</f>
+        <v>8.3069010553982695E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>294.12099999999998</v>
+      </c>
+      <c r="C25">
+        <v>293.92</v>
+      </c>
+      <c r="D25">
+        <v>320.19400000000002</v>
+      </c>
+      <c r="E25">
+        <v>368.673</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>768</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>2.6111702326593478E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>5.2259118127381604E-3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>9.5941835262372179E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>1.6665174829727156E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>294.06900000000002</v>
+      </c>
+      <c r="C26">
+        <v>288.24700000000001</v>
+      </c>
+      <c r="D26">
+        <v>315.18700000000001</v>
+      </c>
+      <c r="E26">
+        <v>373.97199999999998</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>1536</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>5.2232639278536669E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>1.0657526357603028E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>1.9493189757191762E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>3.2858074936091469E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>128</v>
+      </c>
+      <c r="B27">
+        <v>294.72899999999998</v>
+      </c>
+      <c r="C27">
+        <v>289.68</v>
+      </c>
+      <c r="D27">
+        <v>314.88099999999997</v>
+      </c>
+      <c r="E27">
+        <v>366.24700000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>3072</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>1.0423134472685077E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>2.1209610604805303E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>3.9024266310129861E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>6.7102256127695242E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>256</v>
+      </c>
+      <c r="B28">
+        <v>294.745</v>
+      </c>
+      <c r="C28">
+        <v>292.98200000000003</v>
+      </c>
+      <c r="D28">
+        <v>318.59100000000001</v>
+      </c>
+      <c r="E28">
+        <v>368.48500000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>6144</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>2.0845137322091978E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>4.1941143141899499E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>7.7139655545825206E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>0.13338941883658764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>512</v>
+      </c>
+      <c r="B29">
+        <v>294.68900000000002</v>
+      </c>
+      <c r="C29">
+        <v>291.76600000000002</v>
+      </c>
+      <c r="D29">
+        <v>318.13499999999999</v>
+      </c>
+      <c r="E29">
+        <v>386.84399999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>12288</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>4.1698197082347829E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>8.4231884455351208E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>0.15450044792305154</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="9"/>
+        <v>0.25411793901417623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1024</v>
+      </c>
+      <c r="B30">
+        <v>297.92399999999998</v>
+      </c>
+      <c r="C30">
+        <v>296.19900000000001</v>
+      </c>
+      <c r="D30">
+        <v>327.65499999999997</v>
+      </c>
+      <c r="E30">
+        <v>392.88600000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>24576</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>8.2490836589197244E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>0.16594249136560218</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>0.30002288992995679</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="9"/>
+        <v>0.50041996915135689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2048</v>
+      </c>
+      <c r="B31">
+        <v>303.56700000000001</v>
+      </c>
+      <c r="C31">
+        <v>310.32799999999997</v>
+      </c>
+      <c r="D31">
+        <v>347.60899999999998</v>
+      </c>
+      <c r="E31">
+        <v>433.80099999999999</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>49152</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>0.16191483263991147</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>0.31677450955118458</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>0.56560100572769978</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>0.90644327698645233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4096</v>
+      </c>
+      <c r="B32">
+        <v>337.33100000000002</v>
+      </c>
+      <c r="C32">
+        <v>349.11799999999999</v>
+      </c>
+      <c r="D32">
+        <v>399.06799999999998</v>
+      </c>
+      <c r="E32">
+        <v>521.90300000000002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>98304</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0.29141703549332854</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>0.56315629672488954</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>0.98533583248970102</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="9"/>
+        <v>1.5068547220460506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8192</v>
+      </c>
+      <c r="B33">
+        <v>382.97399999999999</v>
+      </c>
+      <c r="C33">
+        <v>427.51499999999999</v>
+      </c>
+      <c r="D33">
+        <v>521.64800000000002</v>
+      </c>
+      <c r="E33">
+        <v>759.16800000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>196608</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>0.51337166491720065</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>0.91977123609697908</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>1.5075913259515996</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>2.0718259989883663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>16384</v>
+      </c>
+      <c r="B34">
+        <v>525.774</v>
+      </c>
+      <c r="C34">
+        <v>599.96400000000006</v>
+      </c>
+      <c r="D34">
+        <v>803.75699999999995</v>
+      </c>
+      <c r="E34">
+        <v>1295.3699999999999</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>393216</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>0.74788026794782547</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>1.3107986479188751</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>1.9568899555462658</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>2.4284397508047895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32768</v>
+      </c>
+      <c r="B35">
+        <v>799.279</v>
+      </c>
+      <c r="C35">
+        <v>1001.88</v>
+      </c>
+      <c r="D35">
+        <v>1498.22</v>
+      </c>
+      <c r="E35">
+        <v>2533.09</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>786432</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>0.98392676399605139</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>1.5699125643789675</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>2.0996435770447599</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>2.4837080403775627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>65536</v>
+      </c>
+      <c r="B36">
+        <v>1810.39</v>
+      </c>
+      <c r="C36">
+        <v>2434.3200000000002</v>
+      </c>
+      <c r="D36">
+        <v>3516.29</v>
+      </c>
+      <c r="E36">
+        <v>5352.67</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>1572864</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>0.86879843569617599</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>1.2922409543527555</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>1.7892312636329768</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="9"/>
+        <v>2.3507729787190317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>131072</v>
+      </c>
+      <c r="B37">
+        <v>3479.57</v>
+      </c>
+      <c r="C37">
+        <v>4730.78</v>
+      </c>
+      <c r="D37">
+        <v>6860.79</v>
+      </c>
+      <c r="E37">
+        <v>10684.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>3145728</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>0.9040565357213679</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>1.3298982408820532</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>1.8340325239513233</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="9"/>
+        <v>2.3553581356170152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>262144</v>
+      </c>
+      <c r="B38">
+        <v>6864.7</v>
+      </c>
+      <c r="C38">
+        <v>9476.0400000000009</v>
+      </c>
+      <c r="D38">
+        <v>13829.4</v>
+      </c>
+      <c r="E38">
+        <v>21634</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>6291456</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0.91649394729558464</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>1.3278660706371015</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="8"/>
+        <v>1.8197336110026465</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="9"/>
+        <v>2.3265067948599425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>524288</v>
+      </c>
+      <c r="B39">
+        <v>13637.6</v>
+      </c>
+      <c r="C39">
+        <v>18913.599999999999</v>
+      </c>
+      <c r="D39">
+        <v>27772.2</v>
+      </c>
+      <c r="E39">
+        <v>43893.2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>12582912</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0.92266322520091515</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>1.3305676338719228</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>1.8123032384902888</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="9"/>
+        <v>2.2933688133925072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1048576</v>
+      </c>
+      <c r="B40">
+        <v>27049.9</v>
+      </c>
+      <c r="C40">
+        <v>37615.9</v>
+      </c>
+      <c r="D40">
+        <v>54694.8</v>
+      </c>
+      <c r="E40">
+        <v>87319.3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>25165824</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0.93034813437387942</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>1.3380418386905537</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="8"/>
+        <v>1.8404545953180194</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="9"/>
+        <v>2.3056368065250181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2097152</v>
+      </c>
+      <c r="B41">
+        <v>53824.6</v>
+      </c>
+      <c r="C41">
+        <v>74979</v>
+      </c>
+      <c r="D41">
+        <v>109699</v>
+      </c>
+      <c r="E41">
+        <v>172548</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>50331648</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>0.9351049148530598</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>1.3425531948945706</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>1.835263694290741</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="9"/>
+        <v>2.3335720147437233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4194304</v>
+      </c>
+      <c r="B42">
+        <v>107489</v>
+      </c>
+      <c r="C42">
+        <v>147764</v>
+      </c>
+      <c r="D42">
+        <v>216502</v>
+      </c>
+      <c r="E42">
+        <v>364427</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>100663296</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>0.93649858125017449</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>1.3624874258953465</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>1.8598127684732704</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="9"/>
+        <v>2.2097878807003872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3">
+        <f t="shared" ref="H44:J59" si="10">(H23-H2)/H2</f>
+        <v>8.9007010860350112E-3</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" ref="I44:J44" si="11">(I23-I2)/I2</f>
+        <v>6.1564892956712837E-2</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4933855066399314E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3">
+        <f t="shared" ref="H45:J45" si="12">(H24-H3)/H3</f>
+        <v>1.4138643825067295E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="12"/>
+        <v>6.4699176613668918E-2</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="12"/>
+        <v>3.0253127932225288E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>32</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3">
+        <f t="shared" ref="H46:J46" si="13">(H25-H4)/H4</f>
+        <v>-2.766058791507897E-3</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="13"/>
+        <v>3.0740738427328416E-2</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="13"/>
+        <v>4.9236043865430866E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>64</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47:J47" si="14">(H26-H5)/H5</f>
+        <v>3.109832886378695E-2</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="14"/>
+        <v>4.4230885157065414E-2</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="14"/>
+        <v>3.7181928058785028E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>128</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3">
+        <f t="shared" ref="H48:J48" si="15">(H27-H6)/H6</f>
+        <v>2.1192350179508521E-2</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="15"/>
+        <v>4.2606572006567617E-2</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="15"/>
+        <v>5.6019571491370448E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>256</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3">
+        <f t="shared" ref="H49:J49" si="16">(H28-H7)/H7</f>
+        <v>3.6510775405997585E-2</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="16"/>
+        <v>4.2487075906099056E-2</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="16"/>
+        <v>6.9761319999457116E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>512</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3">
+        <f t="shared" ref="H50:J50" si="17">(H29-H8)/H8</f>
+        <v>2.0437610962209442E-2</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="17"/>
+        <v>4.0630549923774489E-2</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="17"/>
+        <v>4.7481672198612199E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>1024</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3">
+        <f t="shared" ref="H51:J51" si="18">(H30-H9)/H9</f>
+        <v>2.9051414758321334E-2</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="18"/>
+        <v>6.3826280691580958E-2</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="18"/>
+        <v>1.5933375075721623E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>2048</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3">
+        <f t="shared" ref="H52:J52" si="19">(H31-H10)/H10</f>
+        <v>4.5758036657987756E-2</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="19"/>
+        <v>0.10103305725686038</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="19"/>
+        <v>0.12104859140481471</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>4096</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3">
+        <f t="shared" ref="H53:J53" si="20">(H32-H11)/H11</f>
+        <v>3.7832480708528238E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="20"/>
+        <v>0.11828309962211953</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="20"/>
+        <v>0.16386186705192332</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>8192</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3">
+        <f t="shared" ref="H54:J54" si="21">(H33-H12)/H12</f>
+        <v>9.4195525303206514E-3</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="21"/>
+        <v>9.5928672208078991E-2</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="21"/>
+        <v>7.9775491063901541E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>16384</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3">
+        <f t="shared" ref="H55:J55" si="22">(H34-H13)/H13</f>
+        <v>6.3417138361635067E-2</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="22"/>
+        <v>0.24258575664037749</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="22"/>
+        <v>0.10505106649065513</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>32768</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3">
+        <f t="shared" ref="H56:J56" si="23">(H35-H14)/H14</f>
+        <v>0.1021180181259233</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="23"/>
+        <v>0.29119221476151702</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="23"/>
+        <v>6.17901456324094E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>65536</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3">
+        <f t="shared" ref="H57:J57" si="24">(H36-H15)/H15</f>
+        <v>0.11694025436261463</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="24"/>
+        <v>0.25774324643303037</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="24"/>
+        <v>4.4986894391023442E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>131072</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3">
+        <f t="shared" ref="H58:J58" si="25">(H37-H16)/H16</f>
+        <v>0.11658753947551989</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="25"/>
+        <v>0.25837112052693634</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="25"/>
+        <v>3.5153727362066588E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>262144</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3">
+        <f t="shared" ref="H59:J59" si="26">(H38-H17)/H17</f>
+        <v>0.10631656261476304</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="26"/>
+        <v>0.23620692148610936</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="26"/>
+        <v>3.1316446334473343E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>524288</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3">
+        <f t="shared" ref="H60:J60" si="27">(H39-H18)/H18</f>
+        <v>0.10087979020387436</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="27"/>
+        <v>0.23348528384499603</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="27"/>
+        <v>2.0527097591426378E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>1048576</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3">
+        <f t="shared" ref="H61:J61" si="28">(H40-H19)/H19</f>
+        <v>0.10624762401005956</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="28"/>
+        <v>0.25435873245719898</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="28"/>
+        <v>6.700465990909231E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>2097152</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3">
+        <f t="shared" ref="H62:J62" si="29">(H41-H20)/H20</f>
+        <v>0.11184064871497357</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="29"/>
+        <v>0.26116008350121689</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="29"/>
+        <v>0.2244129169854184</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>4194304</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3">
+        <f t="shared" ref="H63:J63" si="30">(H42-H21)/H21</f>
+        <v>8.1806123277658974E-2</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="30"/>
+        <v>0.52961173568835396</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="30"/>
+        <v>0.3064921095308526</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2150,16 +8665,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>23.951799999999999</v>
+        <v>40.5107</v>
       </c>
       <c r="C2">
-        <v>24.734500000000001</v>
+        <v>41.931600000000003</v>
       </c>
       <c r="D2">
-        <v>28.877400000000002</v>
+        <v>45.580100000000002</v>
       </c>
       <c r="E2">
-        <v>31.384799999999998</v>
+        <v>52.976399999999998</v>
       </c>
       <c r="F2">
         <f>A2*24</f>
@@ -2167,19 +8682,19 @@
       </c>
       <c r="G2">
         <f>$F2/(1000*B2)</f>
-        <v>8.016098998822635E-3</v>
+        <v>4.7394885795604622E-3</v>
       </c>
       <c r="H2">
         <f>2*$F2/(1000*C2)</f>
-        <v>1.5524874163617619E-2</v>
+        <v>9.1577712274275233E-3</v>
       </c>
       <c r="I2">
         <f>4*$F2/(1000*D2)</f>
-        <v>2.6595192087930354E-2</v>
+        <v>1.6849458425935882E-2</v>
       </c>
       <c r="J2">
         <f>8*$F2/(1000*E2)</f>
-        <v>4.8940888583008338E-2</v>
+        <v>2.8994042630303304E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2187,16 +8702,16 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>22.013200000000001</v>
+        <v>33.033700000000003</v>
       </c>
       <c r="C3">
-        <v>24.635000000000002</v>
+        <v>36.726599999999998</v>
       </c>
       <c r="D3">
-        <v>27.0259</v>
+        <v>38.901299999999999</v>
       </c>
       <c r="E3">
-        <v>30.715800000000002</v>
+        <v>42.790999999999997</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F21" si="0">A3*24</f>
@@ -2204,19 +8719,19 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" si="1">$F3/(1000*B3)</f>
-        <v>1.7444079007141171E-2</v>
+        <v>1.1624492563654691E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H21" si="2">2*$F3/(1000*C3)</f>
-        <v>3.1175157296529327E-2</v>
+        <v>2.09112741173972E-2</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I21" si="3">4*$F3/(1000*D3)</f>
-        <v>5.6834369993228717E-2</v>
+        <v>3.9484541647708433E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" si="4">8*$F3/(1000*E3)</f>
-        <v>0.10001367374445724</v>
+        <v>7.1790797130237671E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2224,16 +8739,16 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>21.996099999999998</v>
+        <v>30.6892</v>
       </c>
       <c r="C4">
-        <v>24.651700000000002</v>
+        <v>36.723999999999997</v>
       </c>
       <c r="D4">
-        <v>27.0137</v>
+        <v>38.877099999999999</v>
       </c>
       <c r="E4">
-        <v>30.671399999999998</v>
+        <v>42.794699999999999</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -2241,19 +8756,19 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>3.4915280436077306E-2</v>
+        <v>2.502509025976565E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>6.230807611645444E-2</v>
+        <v>4.182550920379044E-2</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.11372007536916454</v>
+        <v>7.9018239529182993E-2</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>0.20031690760773882</v>
+        <v>0.14356918029569082</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2261,16 +8776,16 @@
         <v>64</v>
       </c>
       <c r="B5">
-        <v>23.516100000000002</v>
+        <v>31.5791</v>
       </c>
       <c r="C5">
-        <v>25.928000000000001</v>
+        <v>38.238700000000001</v>
       </c>
       <c r="D5">
-        <v>28.698899999999998</v>
+        <v>40.499000000000002</v>
       </c>
       <c r="E5">
-        <v>32.2988</v>
+        <v>44.572600000000001</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2278,19 +8793,19 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>6.5316953066197198E-2</v>
+        <v>4.8639764907802939E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.11848195001542734</v>
+        <v>8.0337459170944606E-2</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.21408486039534619</v>
+        <v>0.15170744956665597</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>0.38044757080758418</v>
+        <v>0.2756850621233673</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2298,16 +8813,16 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>24.026800000000001</v>
+        <v>31.985800000000001</v>
       </c>
       <c r="C6">
-        <v>26.290500000000002</v>
+        <v>38.355499999999999</v>
       </c>
       <c r="D6">
-        <v>28.854500000000002</v>
+        <v>40.8506</v>
       </c>
       <c r="E6">
-        <v>32.686500000000002</v>
+        <v>44.851599999999998</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2315,19 +8830,19 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.12785722609752442</v>
+        <v>9.6042618912142261E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.23369658241570149</v>
+        <v>0.16018563178683631</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.42586078427974838</v>
+        <v>0.30080341537211203</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>0.75187003808911923</v>
+        <v>0.54794031874002269</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2335,16 +8850,16 @@
         <v>256</v>
       </c>
       <c r="B7">
-        <v>24.151299999999999</v>
+        <v>32.7605</v>
       </c>
       <c r="C7">
-        <v>26.733000000000001</v>
+        <v>39.088000000000001</v>
       </c>
       <c r="D7">
-        <v>29.383299999999998</v>
+        <v>41.387700000000002</v>
       </c>
       <c r="E7">
-        <v>33.443800000000003</v>
+        <v>45.599400000000003</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2352,19 +8867,19 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.25439624368046443</v>
+        <v>0.18754292516902979</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.45965660419705984</v>
+        <v>0.31436758084322552</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.83639346159212891</v>
+        <v>0.59379960712965441</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>1.4696894491654655</v>
+        <v>1.0779089198542087</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2372,16 +8887,16 @@
         <v>512</v>
       </c>
       <c r="B8">
-        <v>24.958200000000001</v>
+        <v>33.725099999999998</v>
       </c>
       <c r="C8">
-        <v>27.499500000000001</v>
+        <v>40.056100000000001</v>
       </c>
       <c r="D8">
-        <v>30.228999999999999</v>
+        <v>42.411000000000001</v>
       </c>
       <c r="E8">
-        <v>34.4985</v>
+        <v>46.872999999999998</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -2389,19 +8904,19 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.49234319782676633</v>
+        <v>0.36435770390599287</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.89368897616320297</v>
+        <v>0.6135395108360524</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.6259882893909823</v>
+        <v>1.1589446134257622</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>2.8495151963128831</v>
+        <v>2.0972414823032448</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2409,16 +8924,16 @@
         <v>1024</v>
       </c>
       <c r="B9">
-        <v>25.9846</v>
+        <v>35.991999999999997</v>
       </c>
       <c r="C9">
-        <v>28.454499999999999</v>
+        <v>42.695300000000003</v>
       </c>
       <c r="D9">
-        <v>32.309600000000003</v>
+        <v>45.066499999999998</v>
       </c>
       <c r="E9">
-        <v>37.198799999999999</v>
+        <v>50.0702</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -2426,19 +8941,19 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.94579096849672506</v>
+        <v>0.68281840408979777</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>1.7273893408775414</v>
+        <v>1.1512274184746329</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>3.0425632010300343</v>
+        <v>2.181309842122197</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>5.2853317848962877</v>
+        <v>3.9266469876293688</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2446,16 +8961,16 @@
         <v>2048</v>
       </c>
       <c r="B10">
-        <v>29.6663</v>
+        <v>40.796900000000001</v>
       </c>
       <c r="C10">
-        <v>32.616199999999999</v>
+        <v>47.318800000000003</v>
       </c>
       <c r="D10">
-        <v>37.034199999999998</v>
+        <v>50.564500000000002</v>
       </c>
       <c r="E10">
-        <v>43.729599999999998</v>
+        <v>57.636800000000001</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2463,19 +8978,19 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>1.6568294664316077</v>
+        <v>1.2047974233336356</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>3.013962386789387</v>
+        <v>2.077482945467763</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>5.3088226558154359</v>
+        <v>3.8882615273561489</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>8.9919871208517801</v>
+        <v>6.8223079699081142</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2483,16 +8998,16 @@
         <v>4096</v>
       </c>
       <c r="B11">
-        <v>37.060200000000002</v>
+        <v>48.627000000000002</v>
       </c>
       <c r="C11">
-        <v>41.317399999999999</v>
+        <v>55.743600000000001</v>
       </c>
       <c r="D11">
-        <v>46.037300000000002</v>
+        <v>58.922899999999998</v>
       </c>
       <c r="E11">
-        <v>59.472200000000001</v>
+        <v>70.716700000000003</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -2500,19 +9015,19 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>2.6525490957954894</v>
+        <v>2.0215929421926089</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>4.7584794783795683</v>
+        <v>3.5270057907993024</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>8.5412480749305448</v>
+        <v>6.6733986276982291</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>13.22352292331543</v>
+        <v>11.120880923459382</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2520,16 +9035,16 @@
         <v>8192</v>
       </c>
       <c r="B12">
-        <v>51.3842</v>
+        <v>61.979199999999999</v>
       </c>
       <c r="C12">
-        <v>57.391199999999998</v>
+        <v>71.105900000000005</v>
       </c>
       <c r="D12">
-        <v>64.305700000000002</v>
+        <v>76.403400000000005</v>
       </c>
       <c r="E12">
-        <v>95.383399999999995</v>
+        <v>105.291</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -2537,19 +9052,19 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>3.8262345234527348</v>
+        <v>3.1721609830394715</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>6.8515033663697578</v>
+        <v>5.5300052456969109</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>12.229584624691123</v>
+        <v>10.29315449312465</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>16.489913339218354</v>
+        <v>14.938256831068182</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2557,16 +9072,16 @@
         <v>16384</v>
       </c>
       <c r="B13">
-        <v>76.260900000000007</v>
+        <v>86.045100000000005</v>
       </c>
       <c r="C13">
-        <v>86.431700000000006</v>
+        <v>96.579099999999997</v>
       </c>
       <c r="D13">
-        <v>107.375</v>
+        <v>115.54600000000001</v>
       </c>
       <c r="E13">
-        <v>186.91900000000001</v>
+        <v>190.33199999999999</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -2574,19 +9089,19 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>5.156194065372949</v>
+        <v>4.569882538343264</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>9.0988838585842906</v>
+        <v>8.1428797741954533</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>14.648325960419092</v>
+        <v>13.612448721721218</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>16.829364591079557</v>
+        <v>16.527583380619127</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2594,16 +9109,16 @@
         <v>32768</v>
       </c>
       <c r="B14">
-        <v>124.59099999999999</v>
+        <v>133.60499999999999</v>
       </c>
       <c r="C14">
-        <v>150.30199999999999</v>
+        <v>150.33000000000001</v>
       </c>
       <c r="D14">
-        <v>195.762</v>
+        <v>200.59899999999999</v>
       </c>
       <c r="E14">
-        <v>357.9</v>
+        <v>357.166</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -2611,19 +9126,19 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>6.3121092213723307</v>
+        <v>5.8862467722016394</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>10.464691088608269</v>
+        <v>10.462741967671123</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>16.069145186501977</v>
+        <v>15.681673388202334</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>17.578809723386421</v>
+        <v>17.614935352189178</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2631,16 +9146,16 @@
         <v>65536</v>
       </c>
       <c r="B15">
-        <v>231.79300000000001</v>
+        <v>235.471</v>
       </c>
       <c r="C15">
-        <v>267.95299999999997</v>
+        <v>282.27199999999999</v>
       </c>
       <c r="D15">
-        <v>398.67500000000001</v>
+        <v>403.35300000000001</v>
       </c>
       <c r="E15">
-        <v>752.75300000000004</v>
+        <v>750.81200000000001</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -2648,19 +9163,19 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>6.7856406362573507</v>
+        <v>6.6796505726819859</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>11.73984989904946</v>
+        <v>11.14431470354835</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>15.780914278547689</v>
+        <v>15.59789068136347</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>16.715857658488243</v>
+        <v>16.759071511909774</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2668,16 +9183,16 @@
         <v>131072</v>
       </c>
       <c r="B16">
-        <v>497.22399999999999</v>
+        <v>490.01</v>
       </c>
       <c r="C16">
-        <v>571.19200000000001</v>
+        <v>575.77599999999995</v>
       </c>
       <c r="D16">
-        <v>802.62599999999998</v>
+        <v>785.15899999999999</v>
       </c>
       <c r="E16">
-        <v>1471.94</v>
+        <v>1469.96</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -2685,19 +9200,19 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>6.3265811787041653</v>
+        <v>6.4197220464888476</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>11.014608047731761</v>
+        <v>10.926916022897794</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>15.677179657773358</v>
+        <v>16.025941242474453</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>17.097044716496598</v>
+        <v>17.120074015619473</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2705,16 +9220,16 @@
         <v>262144</v>
       </c>
       <c r="B17">
-        <v>1012.09</v>
+        <v>996.85199999999998</v>
       </c>
       <c r="C17">
-        <v>1134.19</v>
+        <v>1170.43</v>
       </c>
       <c r="D17">
-        <v>1586.79</v>
+        <v>1570.75</v>
       </c>
       <c r="E17">
-        <v>2943.27</v>
+        <v>2918.63</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -2722,19 +9237,19 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>6.216300921854776</v>
+        <v>6.3113240481034296</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>11.094183514226012</v>
+        <v>10.750674538417504</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>15.859580662847636</v>
+        <v>16.021533662263248</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>17.100588121375207</v>
+        <v>17.244956709140933</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2742,16 +9257,16 @@
         <v>524288</v>
       </c>
       <c r="B18">
-        <v>1896.35</v>
+        <v>1891.66</v>
       </c>
       <c r="C18">
-        <v>2196.62</v>
+        <v>2218.9899999999998</v>
       </c>
       <c r="D18">
-        <v>3234.76</v>
+        <v>3188.25</v>
       </c>
       <c r="E18">
-        <v>5868.99</v>
+        <v>5804.82</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -2759,19 +9274,19 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>6.6353320853218021</v>
+        <v>6.6517830899844581</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>11.456612431827081</v>
+        <v>11.341116453882172</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>15.559623588767018</v>
+        <v>15.786606445542226</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>17.151723891163556</v>
+        <v>17.341329446907913</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2779,16 +9294,16 @@
         <v>1048576</v>
       </c>
       <c r="B19">
-        <v>3729.79</v>
+        <v>3739.32</v>
       </c>
       <c r="C19">
-        <v>4759.28</v>
+        <v>4623.58</v>
       </c>
       <c r="D19">
-        <v>6774.12</v>
+        <v>6786.56</v>
       </c>
       <c r="E19">
-        <v>11866.5</v>
+        <v>11478.2</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -2796,19 +9311,19 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>6.7472495770539362</v>
+        <v>6.7300535926318155</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>10.575475281975425</v>
+        <v>10.885860739946102</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>14.859981222653275</v>
+        <v>14.832742361373066</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>16.965962330931614</v>
+        <v>17.5399097419456</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2816,16 +9331,16 @@
         <v>2097152</v>
       </c>
       <c r="B20">
-        <v>8216.2099999999991</v>
+        <v>8298.48</v>
       </c>
       <c r="C20">
-        <v>10584.8</v>
+        <v>10349.1</v>
       </c>
       <c r="D20">
-        <v>13444.7</v>
+        <v>13133.2</v>
       </c>
       <c r="E20">
-        <v>23444.1</v>
+        <v>25389.1</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -2833,19 +9348,19 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>6.1258960031450034</v>
+        <v>6.0651647048616129</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>9.5101745899780816</v>
+        <v>9.7267681247644724</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>14.974420552336609</v>
+        <v>15.329591569457557</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>17.175032694793146</v>
+        <v>15.859293318786408</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2853,16 +9368,16 @@
         <v>4194304</v>
       </c>
       <c r="B21">
-        <v>18525.400000000001</v>
+        <v>18566.5</v>
       </c>
       <c r="C21">
-        <v>20262.099999999999</v>
+        <v>26947.8</v>
       </c>
       <c r="D21">
-        <v>28577.8</v>
+        <v>36718.699999999997</v>
       </c>
       <c r="E21">
-        <v>49760.4</v>
+        <v>62824.2</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -2870,19 +9385,19 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>5.433798784371727</v>
+        <v>5.421770177470175</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>9.9361167894739442</v>
+        <v>7.4709843475163096</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>14.089719432566538</v>
+        <v>10.965888879508261</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>16.183679552415175</v>
+        <v>12.818410230452596</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2901,16 +9416,16 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>21.998799999999999</v>
+        <v>30.228300000000001</v>
       </c>
       <c r="C23">
-        <v>24.924900000000001</v>
+        <v>35.321300000000001</v>
       </c>
       <c r="D23">
-        <v>27.697500000000002</v>
+        <v>43.0702</v>
       </c>
       <c r="E23">
-        <v>32.714300000000001</v>
+        <v>50.914000000000001</v>
       </c>
       <c r="F23">
         <f>A23*24</f>
@@ -2918,19 +9433,19 @@
       </c>
       <c r="G23">
         <f>$F23/(1000*B23)</f>
-        <v>8.7277487862974339E-3</v>
+        <v>6.351663838191364E-3</v>
       </c>
       <c r="H23">
         <f>2*$F23/(1000*C23)</f>
-        <v>1.5406280466521429E-2</v>
+        <v>1.087162703524502E-2</v>
       </c>
       <c r="I23">
         <f>4*$F23/(1000*D23)</f>
-        <v>2.7728134308150555E-2</v>
+        <v>1.7831354393524991E-2</v>
       </c>
       <c r="J23">
         <f>8*$F23/(1000*E23)</f>
-        <v>4.6951944562469622E-2</v>
+        <v>3.0168519464194524E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2938,16 +9453,16 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>21.930399999999999</v>
+        <v>30.072800000000001</v>
       </c>
       <c r="C24">
-        <v>24.867799999999999</v>
+        <v>32.9253</v>
       </c>
       <c r="D24">
-        <v>27.5474</v>
+        <v>40.374000000000002</v>
       </c>
       <c r="E24">
-        <v>32.375599999999999</v>
+        <v>47.832299999999996</v>
       </c>
       <c r="F24">
         <f t="shared" ref="F24:F42" si="5">A24*24</f>
@@ -2955,19 +9470,19 @@
       </c>
       <c r="G24">
         <f t="shared" ref="G24:G42" si="6">$F24/(1000*B24)</f>
-        <v>1.7509940539160253E-2</v>
+        <v>1.2769013859700461E-2</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:H42" si="7">2*$F24/(1000*C24)</f>
-        <v>3.0883310948294582E-2</v>
+        <v>2.3325527785623818E-2</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:I42" si="8">4*$F24/(1000*D24)</f>
-        <v>5.575843818291381E-2</v>
+        <v>3.8044285926586416E-2</v>
       </c>
       <c r="J24">
         <f t="shared" ref="J24:J42" si="9">8*$F24/(1000*E24)</f>
-        <v>9.4886272377963654E-2</v>
+        <v>6.4224383941395249E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2975,16 +9490,16 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>21.976299999999998</v>
+        <v>30.051500000000001</v>
       </c>
       <c r="C25">
-        <v>24.871300000000002</v>
+        <v>32.911099999999998</v>
       </c>
       <c r="D25">
-        <v>27.579599999999999</v>
+        <v>40.356499999999997</v>
       </c>
       <c r="E25">
-        <v>32.3628</v>
+        <v>47.787100000000002</v>
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
@@ -2992,19 +9507,19 @@
       </c>
       <c r="G25">
         <f t="shared" si="6"/>
-        <v>3.494673807692833E-2</v>
+        <v>2.5556128645824669E-2</v>
       </c>
       <c r="H25">
         <f t="shared" si="7"/>
-        <v>6.1757929822727396E-2</v>
+        <v>4.6671183886287604E-2</v>
       </c>
       <c r="I25">
         <f t="shared" si="8"/>
-        <v>0.11138667710916765</v>
+        <v>7.6121566538228047E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
-        <v>0.18984760280321852</v>
+        <v>0.12857026268595498</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3012,16 +9527,16 @@
         <v>64</v>
       </c>
       <c r="B26">
-        <v>23.4621</v>
+        <v>31.652799999999999</v>
       </c>
       <c r="C26">
-        <v>26.4116</v>
+        <v>34.451099999999997</v>
       </c>
       <c r="D26">
-        <v>29.3445</v>
+        <v>42.355400000000003</v>
       </c>
       <c r="E26">
-        <v>34.4893</v>
+        <v>49.923999999999999</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
@@ -3029,19 +9544,19 @@
       </c>
       <c r="G26">
         <f t="shared" si="6"/>
-        <v>6.5467285537100267E-2</v>
+        <v>4.8526512662386896E-2</v>
       </c>
       <c r="H26">
         <f t="shared" si="7"/>
-        <v>0.11631252934316741</v>
+        <v>8.9169866854759361E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="8"/>
-        <v>0.20937484025967387</v>
+        <v>0.14505824522965194</v>
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
-        <v>0.35628441284688289</v>
+        <v>0.24613412386827979</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3049,16 +9564,16 @@
         <v>128</v>
       </c>
       <c r="B27">
-        <v>23.729500000000002</v>
+        <v>31.932400000000001</v>
       </c>
       <c r="C27">
-        <v>26.785499999999999</v>
+        <v>34.733899999999998</v>
       </c>
       <c r="D27">
-        <v>29.6629</v>
+        <v>42.5184</v>
       </c>
       <c r="E27">
-        <v>34.783200000000001</v>
+        <v>50.226700000000001</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
@@ -3066,19 +9581,19 @@
       </c>
       <c r="G27">
         <f t="shared" si="6"/>
-        <v>0.12945911207568639</v>
+        <v>9.6203229321942599E-2</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>0.22937783502268019</v>
+        <v>0.17688770912566684</v>
       </c>
       <c r="I27">
         <f t="shared" si="8"/>
-        <v>0.41425484359250103</v>
+        <v>0.28900428990742832</v>
       </c>
       <c r="J27">
         <f t="shared" si="9"/>
-        <v>0.70654798868419233</v>
+        <v>0.48930150696740971</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3086,16 +9601,16 @@
         <v>256</v>
       </c>
       <c r="B28">
-        <v>24.092500000000001</v>
+        <v>32.365299999999998</v>
       </c>
       <c r="C28">
-        <v>27.356100000000001</v>
+        <v>35.441899999999997</v>
       </c>
       <c r="D28">
-        <v>30.404299999999999</v>
+        <v>43.3202</v>
       </c>
       <c r="E28">
-        <v>35.764099999999999</v>
+        <v>51.406199999999998</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
@@ -3103,19 +9618,19 @@
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
-        <v>0.2550171215108436</v>
+        <v>0.18983293836299989</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
-        <v>0.44918683584282842</v>
+        <v>0.34670827466924747</v>
       </c>
       <c r="I28">
         <f t="shared" si="8"/>
-        <v>0.80830671977319002</v>
+        <v>0.56731040022899248</v>
       </c>
       <c r="J28">
         <f t="shared" si="9"/>
-        <v>1.3743390718625661</v>
+        <v>0.95614925826067676</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3123,16 +9638,16 @@
         <v>512</v>
       </c>
       <c r="B29">
-        <v>25.0687</v>
+        <v>33.588799999999999</v>
       </c>
       <c r="C29">
-        <v>28.124600000000001</v>
+        <v>36.255299999999998</v>
       </c>
       <c r="D29">
-        <v>31.342099999999999</v>
+        <v>44.429699999999997</v>
       </c>
       <c r="E29">
-        <v>37.094700000000003</v>
+        <v>52.4572</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
@@ -3140,19 +9655,19 @@
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
-        <v>0.49017300458340479</v>
+        <v>0.36583623112466063</v>
       </c>
       <c r="H29">
         <f t="shared" si="7"/>
-        <v>0.87382576107749077</v>
+        <v>0.67785951295396818</v>
       </c>
       <c r="I29">
         <f t="shared" si="8"/>
-        <v>1.5682420769508107</v>
+        <v>1.1062870107158049</v>
       </c>
       <c r="J29">
         <f t="shared" si="9"/>
-        <v>2.6500820871984403</v>
+        <v>1.873984886726703</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3160,16 +9675,16 @@
         <v>1024</v>
       </c>
       <c r="B30">
-        <v>25.95</v>
+        <v>35.374499999999998</v>
       </c>
       <c r="C30">
-        <v>29.025700000000001</v>
+        <v>38.763199999999998</v>
       </c>
       <c r="D30">
-        <v>33.520499999999998</v>
+        <v>47.293999999999997</v>
       </c>
       <c r="E30">
-        <v>39.951599999999999</v>
+        <v>55.8202</v>
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
@@ -3177,19 +9692,19 @@
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>0.94705202312138725</v>
+        <v>0.69473773480897261</v>
       </c>
       <c r="H30">
         <f t="shared" si="7"/>
-        <v>1.6933958526409354</v>
+        <v>1.2680067693069716</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
-        <v>2.9326531525484407</v>
+        <v>2.0785723347570517</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
-        <v>4.9211545970624462</v>
+        <v>3.5221658109429921</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3197,16 +9712,16 @@
         <v>2048</v>
       </c>
       <c r="B31">
-        <v>29.599699999999999</v>
+        <v>40.3215</v>
       </c>
       <c r="C31">
-        <v>33.153199999999998</v>
+        <v>43.404800000000002</v>
       </c>
       <c r="D31">
-        <v>37.789299999999997</v>
+        <v>53.032299999999999</v>
       </c>
       <c r="E31">
-        <v>46.253</v>
+        <v>63.667999999999999</v>
       </c>
       <c r="F31">
         <f t="shared" si="5"/>
@@ -3214,19 +9729,19 @@
       </c>
       <c r="G31">
         <f t="shared" si="6"/>
-        <v>1.6605573705138905</v>
+        <v>1.2190022692608162</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>2.9651436362100796</v>
+        <v>2.2648186375700381</v>
       </c>
       <c r="I31">
         <f t="shared" si="8"/>
-        <v>5.2027425752792462</v>
+        <v>3.7073255355698316</v>
       </c>
       <c r="J31">
         <f t="shared" si="9"/>
-        <v>8.5014161243595012</v>
+        <v>6.1760381981529182</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3234,16 +9749,16 @@
         <v>4096</v>
       </c>
       <c r="B32">
-        <v>37.006300000000003</v>
+        <v>48.652799999999999</v>
       </c>
       <c r="C32">
-        <v>41.403599999999997</v>
+        <v>51.6006</v>
       </c>
       <c r="D32">
-        <v>47.17</v>
+        <v>61.421900000000001</v>
       </c>
       <c r="E32">
-        <v>57.02</v>
+        <v>73.361699999999999</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
@@ -3251,19 +9766,19 @@
       </c>
       <c r="G32">
         <f t="shared" si="6"/>
-        <v>2.6564125567808721</v>
+        <v>2.02052091554854</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
-        <v>4.7485725878909086</v>
+        <v>3.8101882536249581</v>
       </c>
       <c r="I32">
         <f t="shared" si="8"/>
-        <v>8.3361458554165786</v>
+        <v>6.4018859722672206</v>
       </c>
       <c r="J32">
         <f t="shared" si="9"/>
-        <v>13.792213258505788</v>
+        <v>10.719926064963053</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3271,16 +9786,16 @@
         <v>8192</v>
       </c>
       <c r="B33">
-        <v>51.211199999999998</v>
+        <v>62.0017</v>
       </c>
       <c r="C33">
-        <v>56.679600000000001</v>
+        <v>66.857900000000001</v>
       </c>
       <c r="D33">
-        <v>63.8979</v>
+        <v>78.087699999999998</v>
       </c>
       <c r="E33">
-        <v>79.022000000000006</v>
+        <v>94.694999999999993</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
@@ -3288,19 +9803,19 @@
       </c>
       <c r="G33">
         <f t="shared" si="6"/>
-        <v>3.8391601837098137</v>
+        <v>3.1710098271499008</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
-        <v>6.9375224948658776</v>
+        <v>5.8813692921853669</v>
       </c>
       <c r="I33">
         <f t="shared" si="8"/>
-        <v>12.307634523200292</v>
+        <v>10.071137964109585</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>19.904127964364353</v>
+        <v>16.609789323617932</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3308,16 +9823,16 @@
         <v>16384</v>
       </c>
       <c r="B34">
-        <v>77.617800000000003</v>
+        <v>85.893600000000006</v>
       </c>
       <c r="C34">
-        <v>84.449700000000007</v>
+        <v>95.553700000000006</v>
       </c>
       <c r="D34">
-        <v>99.901899999999998</v>
+        <v>111.584</v>
       </c>
       <c r="E34">
-        <v>132.94499999999999</v>
+        <v>145.87899999999999</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
@@ -3325,19 +9840,19 @@
       </c>
       <c r="G34">
         <f t="shared" si="6"/>
-        <v>5.0660544359670077</v>
+        <v>4.5779429433624852</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>9.3124309500211364</v>
+        <v>8.2302621457881795</v>
       </c>
       <c r="I34">
         <f t="shared" si="8"/>
-        <v>15.744084947333334</v>
+        <v>14.095784341841124</v>
       </c>
       <c r="J34">
         <f t="shared" si="9"/>
-        <v>23.661875211553649</v>
+        <v>21.563953687645242</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3345,16 +9860,16 @@
         <v>32768</v>
       </c>
       <c r="B35">
-        <v>125.76900000000001</v>
+        <v>133.34800000000001</v>
       </c>
       <c r="C35">
-        <v>142.55000000000001</v>
+        <v>153.15700000000001</v>
       </c>
       <c r="D35">
-        <v>167.756</v>
+        <v>177.75200000000001</v>
       </c>
       <c r="E35">
-        <v>235.369</v>
+        <v>248.553</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
@@ -3362,19 +9877,19 @@
       </c>
       <c r="G35">
         <f t="shared" si="6"/>
-        <v>6.2529876201607708</v>
+        <v>5.8975912649608544</v>
       </c>
       <c r="H35">
         <f t="shared" si="7"/>
-        <v>11.03377060680463</v>
+        <v>10.269618757222981</v>
       </c>
       <c r="I35">
         <f t="shared" si="8"/>
-        <v>18.751806194711367</v>
+        <v>17.697286106485439</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>26.730181119858607</v>
+        <v>25.312331776321347</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3382,16 +9897,16 @@
         <v>65536</v>
       </c>
       <c r="B36">
-        <v>233.833</v>
+        <v>232.64</v>
       </c>
       <c r="C36">
-        <v>260.38</v>
+        <v>272.774</v>
       </c>
       <c r="D36">
-        <v>318.37900000000002</v>
+        <v>336.57600000000002</v>
       </c>
       <c r="E36">
-        <v>516.09400000000005</v>
+        <v>535.44899999999996</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
@@ -3399,19 +9914,19 @@
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>6.7264415202302494</v>
+        <v>6.760935350756534</v>
       </c>
       <c r="H36">
         <f t="shared" si="7"/>
-        <v>12.081296566556571</v>
+        <v>11.532360122299046</v>
       </c>
       <c r="I36">
         <f t="shared" si="8"/>
-        <v>19.760901315727484</v>
+        <v>18.69252709640616</v>
       </c>
       <c r="J36">
         <f t="shared" si="9"/>
-        <v>24.381046863555863</v>
+        <v>23.499739470986032</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3419,16 +9934,16 @@
         <v>131072</v>
       </c>
       <c r="B37">
-        <v>497.73099999999999</v>
+        <v>489.87200000000001</v>
       </c>
       <c r="C37">
-        <v>546.05700000000002</v>
+        <v>552.97500000000002</v>
       </c>
       <c r="D37">
-        <v>660.17499999999995</v>
+        <v>664.16300000000001</v>
       </c>
       <c r="E37">
-        <v>1071.3</v>
+        <v>1040.52</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
@@ -3436,19 +9951,19 @@
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>6.3201367807108655</v>
+        <v>6.4215305222588759</v>
       </c>
       <c r="H37">
         <f t="shared" si="7"/>
-        <v>11.521610381333817</v>
+        <v>11.377469144174691</v>
       </c>
       <c r="I37">
         <f t="shared" si="8"/>
-        <v>19.059964403377894</v>
+        <v>18.945517892445078</v>
       </c>
       <c r="J37">
         <f t="shared" si="9"/>
-        <v>23.490921310557265</v>
+        <v>24.185814784915234</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3456,16 +9971,16 @@
         <v>262144</v>
       </c>
       <c r="B38">
-        <v>1012.56</v>
+        <v>995.97699999999998</v>
       </c>
       <c r="C38">
-        <v>1056.7</v>
+        <v>1126.8699999999999</v>
       </c>
       <c r="D38">
-        <v>1355.53</v>
+        <v>1356.78</v>
       </c>
       <c r="E38">
-        <v>2278.39</v>
+        <v>2210.75</v>
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
@@ -3473,19 +9988,19 @@
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>6.2134155013036265</v>
+        <v>6.3168687630336846</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
-        <v>11.907742973407778</v>
+        <v>11.166249877980601</v>
       </c>
       <c r="I38">
         <f t="shared" si="8"/>
-        <v>18.565302132745124</v>
+        <v>18.548197939238491</v>
       </c>
       <c r="J38">
         <f t="shared" si="9"/>
-        <v>22.090883474734351</v>
+        <v>22.766775076331562</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3493,16 +10008,16 @@
         <v>524288</v>
       </c>
       <c r="B39">
-        <v>1899.72</v>
+        <v>1893.23</v>
       </c>
       <c r="C39">
-        <v>2066.19</v>
+        <v>2197.5500000000002</v>
       </c>
       <c r="D39">
-        <v>2874.62</v>
+        <v>2859.47</v>
       </c>
       <c r="E39">
-        <v>5055.5200000000004</v>
+        <v>5008.9399999999996</v>
       </c>
       <c r="F39">
         <f t="shared" si="5"/>
@@ -3510,19 +10025,19 @@
       </c>
       <c r="G39">
         <f t="shared" si="6"/>
-        <v>6.6235613669382856</v>
+        <v>6.6462669617531942</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
-        <v>12.179820829642965</v>
+        <v>11.451764009920138</v>
       </c>
       <c r="I39">
         <f t="shared" si="8"/>
-        <v>17.50897440357334</v>
+        <v>17.601740182621256</v>
       </c>
       <c r="J39">
         <f t="shared" si="9"/>
-        <v>19.911561224166853</v>
+        <v>20.096726253458815</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3530,16 +10045,16 @@
         <v>1048576</v>
       </c>
       <c r="B40">
-        <v>3731.94</v>
+        <v>3736.27</v>
       </c>
       <c r="C40">
-        <v>4435.84</v>
+        <v>4527.47</v>
       </c>
       <c r="D40">
-        <v>6262.07</v>
+        <v>6455.84</v>
       </c>
       <c r="E40">
-        <v>10264</v>
+        <v>9958.07</v>
       </c>
       <c r="F40">
         <f t="shared" si="5"/>
@@ -3547,19 +10062,19 @@
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>6.7433624334796383</v>
+        <v>6.7355474845233347</v>
       </c>
       <c r="H40">
         <f t="shared" si="7"/>
-        <v>11.346587793969125</v>
+        <v>11.116947875966048</v>
       </c>
       <c r="I40">
         <f t="shared" si="8"/>
-        <v>16.075083159402563</v>
+        <v>15.592594612010211</v>
       </c>
       <c r="J40">
         <f t="shared" si="9"/>
-        <v>19.614827747466876</v>
+        <v>20.217430887712176</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3567,16 +10082,16 @@
         <v>2097152</v>
       </c>
       <c r="B41">
-        <v>8213.7199999999993</v>
+        <v>8296.52</v>
       </c>
       <c r="C41">
-        <v>10110.1</v>
+        <v>10477.1</v>
       </c>
       <c r="D41">
-        <v>12280.3</v>
+        <v>12566.8</v>
       </c>
       <c r="E41">
-        <v>21350.5</v>
+        <v>20625</v>
       </c>
       <c r="F41">
         <f t="shared" si="5"/>
@@ -3584,19 +10099,19 @@
       </c>
       <c r="G41">
         <f t="shared" si="6"/>
-        <v>6.1277530765597081</v>
+        <v>6.0665975613871836</v>
       </c>
       <c r="H41">
         <f t="shared" si="7"/>
-        <v>9.9567062640329969</v>
+        <v>9.6079350201868845</v>
       </c>
       <c r="I41">
         <f t="shared" si="8"/>
-        <v>16.394273104077261</v>
+        <v>16.020513734602286</v>
       </c>
       <c r="J41">
         <f t="shared" si="9"/>
-        <v>18.859192243741365</v>
+        <v>19.522578618181818</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3604,16 +10119,16 @@
         <v>4194304</v>
       </c>
       <c r="B42">
-        <v>18529</v>
+        <v>18568.099999999999</v>
       </c>
       <c r="C42">
-        <v>19852.5</v>
+        <v>20249.900000000001</v>
       </c>
       <c r="D42">
-        <v>25057.4</v>
+        <v>26494.7</v>
       </c>
       <c r="E42">
-        <v>46661.9</v>
+        <v>48263.1</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
@@ -3621,19 +10136,19 @@
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
-        <v>5.4327430514328894</v>
+        <v>5.4213029873815843</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
-        <v>10.141120362674727</v>
+        <v>9.9421030227309757</v>
       </c>
       <c r="I42">
         <f t="shared" si="8"/>
-        <v>16.069232402404079</v>
+        <v>15.197499273439593</v>
       </c>
       <c r="J42">
         <f t="shared" si="9"/>
-        <v>17.258327843486871</v>
+        <v>16.685757193383765</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3646,20 +10161,20 @@
         <v>8</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" ref="G44:I59" si="10">(G23-G2)/G2</f>
-        <v>8.8777569685619215E-2</v>
+        <f>(G23-G2)/G2</f>
+        <v>0.34015806380113994</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="10"/>
-        <v>-7.6389473979836219E-3</v>
+        <f t="shared" ref="H44" si="10">ABS((H23-H2)/H2)</f>
+        <v>0.18714769841427129</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="10"/>
-        <v>4.259951259138911E-2</v>
+        <f>ABS((I23-I2)/I2)</f>
+        <v>5.8274630719151517E-2</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44:J78" si="11">(J23-J2)/J2</f>
-        <v>-4.0639720244663731E-2</v>
+        <f>ABS((J23-J2)/J2)</f>
+        <v>4.0507522488902908E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3667,20 +10182,20 @@
         <v>16</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="10"/>
-        <v>3.7755809287563931E-3</v>
+        <f t="shared" ref="G44:I59" si="11">(G24-G3)/G3</f>
+        <v>9.8457742544758239E-2</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="10"/>
-        <v>-9.361503631201749E-3</v>
+        <f t="shared" ref="H45" si="12">ABS((H24-H3)/H3)</f>
+        <v>0.11545225100454649</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.8931006192962022E-2</v>
+        <f>ABS((I24-I3)/I3)</f>
+        <v>3.6476445237033819E-2</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="11"/>
-        <v>-5.1267003545880145E-2</v>
+        <f>ABS((J24-J3)/J3)</f>
+        <v>0.10539530819132684</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3688,20 +10203,20 @@
         <v>32</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="10"/>
-        <v>9.0097059104583496E-4</v>
+        <f t="shared" si="11"/>
+        <v>2.1220238590419858E-2</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="10"/>
-        <v>-8.8294540293430805E-3</v>
+        <f t="shared" ref="H46" si="13">ABS((H25-H4)/H4)</f>
+        <v>0.1158545293229335</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="10"/>
-        <v>-2.0518789250025347E-2</v>
+        <f t="shared" ref="H46:J63" si="14">ABS((I25-I4)/I4)</f>
+        <v>3.6658283052296396E-2</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="11"/>
-        <v>-5.226371018576885E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.10447170889214885</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3709,20 +10224,20 @@
         <v>64</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="10"/>
-        <v>2.3015842571638503E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.328388009907395E-3</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.8310136455193866E-2</v>
+        <f t="shared" ref="H47" si="15">ABS((H26-H5)/H5)</f>
+        <v>0.10994133714163</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="10"/>
-        <v>-2.2000715636661169E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.3829122142631204E-2</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="11"/>
-        <v>-6.3512451687914931E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.10719093021392523</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3730,20 +10245,20 @@
         <v>128</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2528708990918591E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.6722826971978034E-3</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.8480147841182671E-2</v>
+        <f t="shared" ref="H48" si="16">ABS((H27-H6)/H6)</f>
+        <v>0.10426701291821522</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="10"/>
-        <v>-2.7252898401707252E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.9225370663054038E-2</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="11"/>
-        <v>-6.0279100255295551E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.10701678589276238</v>
       </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.2">
@@ -3751,20 +10266,20 @@
         <v>256</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="10"/>
-        <v>2.440593545709073E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.2210608274911681E-2</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="10"/>
-        <v>-2.2777369581190456E-2</v>
+        <f t="shared" ref="H49" si="17">ABS((H28-H7)/H7)</f>
+        <v>0.10287541017834848</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="10"/>
-        <v>-3.3580776403337682E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.4609674008891827E-2</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="11"/>
-        <v>-6.4877908293512115E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.11295913722469277</v>
       </c>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.2">
@@ -3772,20 +10287,20 @@
         <v>512</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="10"/>
-        <v>-4.4078871261772458E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.0579002524651691E-3</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="10"/>
-        <v>-2.2226093882224233E-2</v>
+        <f t="shared" ref="H50" si="18">ABS((H29-H8)/H8)</f>
+        <v>0.10483432767071314</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="10"/>
-        <v>-3.5514531572549336E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.5435823334391195E-2</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="11"/>
-        <v>-6.9988435005540001E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.1064524984177576</v>
       </c>
     </row>
     <row r="51" spans="6:10" x14ac:dyDescent="0.2">
@@ -3793,20 +10308,20 @@
         <v>1024</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="10"/>
-        <v>1.3333333333332218E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.7456077117697782E-2</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.9679111959401543E-2</v>
+        <f t="shared" ref="H51" si="19">ABS((H30-H9)/H9)</f>
+        <v>0.10143899368473208</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="10"/>
-        <v>-3.61241628257334E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.7098997758700779E-2</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="11"/>
-        <v>-6.8903373081428548E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.10300930487529611</v>
       </c>
     </row>
     <row r="52" spans="6:10" x14ac:dyDescent="0.2">
@@ -3814,20 +10329,20 @@
         <v>2048</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="10"/>
-        <v>2.2500228042852326E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.1790235978324291E-2</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.6197531460009826E-2</v>
+        <f t="shared" ref="H52" si="20">ABS((H31-H10)/H10)</f>
+        <v>9.0174358596284337E-2</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.9981846713223037E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.6533904808956118E-2</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="11"/>
-        <v>-5.4556461202516573E-2</v>
+        <f t="shared" si="14"/>
+        <v>9.4728906200917257E-2</v>
       </c>
     </row>
     <row r="53" spans="6:10" x14ac:dyDescent="0.2">
@@ -3835,20 +10350,20 @@
         <v>4096</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="10"/>
-        <v>1.4565087566170262E-3</v>
+        <f t="shared" si="11"/>
+        <v>-5.30288082083527E-4</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="10"/>
-        <v>-2.0819445652066402E-3</v>
+        <f t="shared" ref="H53" si="21">ABS((H32-H11)/H11)</f>
+        <v>8.0289764072510872E-2</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="10"/>
-        <v>-2.4013143947424109E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.0685814017475827E-2</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="11"/>
-        <v>4.3005962820063241E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.6054235384403645E-2</v>
       </c>
     </row>
     <row r="54" spans="6:10" x14ac:dyDescent="0.2">
@@ -3856,20 +10371,20 @@
         <v>8192</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="10"/>
-        <v>3.3781672759083644E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.6289327550700342E-4</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2554781614549029E-2</v>
+        <f t="shared" ref="H54" si="22">ABS((H33-H12)/H12)</f>
+        <v>6.3537741987110152E-2</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="10"/>
-        <v>6.3820563743096541E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.1569338064765412E-2</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="11"/>
-        <v>0.20704866999063545</v>
+        <f t="shared" si="14"/>
+        <v>0.11189608743861877</v>
       </c>
     </row>
     <row r="55" spans="6:10" x14ac:dyDescent="0.2">
@@ -3877,20 +10392,20 @@
         <v>16384</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.7481814738371664E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.7638101092513848E-3</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="10"/>
-        <v>2.3469591958290136E-2</v>
+        <f t="shared" ref="H55" si="23">ABS((H34-H13)/H13)</f>
+        <v>1.0731138616296213E-2</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="10"/>
-        <v>7.4804383099820973E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.5506882707198241E-2</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="11"/>
-        <v>0.40598743841438201</v>
+        <f t="shared" si="14"/>
+        <v>0.30472514892479402</v>
       </c>
     </row>
     <row r="56" spans="6:10" x14ac:dyDescent="0.2">
@@ -3898,20 +10413,20 @@
         <v>32768</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="10"/>
-        <v>-9.3663780422839522E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.9272879983201613E-3</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="10"/>
-        <v>5.4380918975797922E-2</v>
+        <f t="shared" ref="H56" si="24">ABS((H35-H14)/H14)</f>
+        <v>1.8458183432686646E-2</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="10"/>
-        <v>0.16694484847039751</v>
+        <f t="shared" si="14"/>
+        <v>0.12853301228678149</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="11"/>
-        <v>0.52059107189137066</v>
+        <f t="shared" si="14"/>
+        <v>0.43698124746030015</v>
       </c>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.2">
@@ -3919,20 +10434,20 @@
         <v>65536</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="10"/>
-        <v>-8.7241749453671018E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.2169016506189919E-2</v>
       </c>
       <c r="H57" s="2">
-        <f>(H36-H15)/H15</f>
-        <v>2.9084415085644008E-2</v>
+        <f t="shared" ref="H57" si="25">ABS((H36-H15)/H15)</f>
+        <v>3.4820034167479377E-2</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25220256361129356</v>
+        <f t="shared" si="14"/>
+        <v>0.19840095550484879</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="11"/>
-        <v>0.45855793711998188</v>
+        <f t="shared" si="14"/>
+        <v>0.40221010777870525</v>
       </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.2">
@@ -3940,20 +10455,20 @@
         <v>131072</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.0186225089456188E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.8170624163041582E-4</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="10"/>
-        <v>4.6029993205837512E-2</v>
+        <f t="shared" ref="H58" si="26">ABS((H37-H16)/H16)</f>
+        <v>4.1233328812333221E-2</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21577763471806732</v>
+        <f t="shared" si="14"/>
+        <v>0.18217817011787787</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="11"/>
-        <v>0.37397554373191433</v>
+        <f t="shared" si="14"/>
+        <v>0.41271671856379499</v>
       </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.2">
@@ -3961,20 +10476,20 @@
         <v>262144</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="10"/>
-        <v>-4.6417002449240428E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.7853434366457427E-4</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="10"/>
-        <v>7.3332071543484312E-2</v>
+        <f t="shared" ref="H59" si="27">ABS((H38-H17)/H17)</f>
+        <v>3.8655745560712405E-2</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="10"/>
-        <v>0.17060485566531164</v>
+        <f t="shared" si="14"/>
+        <v>0.15770427040492946</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="11"/>
-        <v>0.29182010103625788</v>
+        <f t="shared" si="14"/>
+        <v>0.32019902747936224</v>
       </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.2">
@@ -3982,20 +10497,20 @@
         <v>524288</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" ref="G60:I63" si="12">(G39-G18)/G18</f>
-        <v>-1.7739456340934066E-3</v>
+        <f t="shared" ref="G60:I63" si="28">(G39-G18)/G18</f>
+        <v>-8.2927061160029418E-4</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="12"/>
-        <v>6.3125849994434061E-2</v>
+        <f t="shared" ref="H60" si="29">ABS((H39-H18)/H18)</f>
+        <v>9.7563195376668879E-3</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="12"/>
-        <v>0.12528264605408709</v>
+        <f t="shared" si="14"/>
+        <v>0.1149793493199789</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="11"/>
-        <v>0.16090728550178826</v>
+        <f t="shared" si="14"/>
+        <v>0.15889190128051051</v>
       </c>
     </row>
     <row r="61" spans="6:10" x14ac:dyDescent="0.2">
@@ -4003,20 +10518,20 @@
         <v>1048576</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="12"/>
-        <v>-5.7610786882960252E-4</v>
+        <f t="shared" si="28"/>
+        <v>8.1632216087165906E-4</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="12"/>
-        <v>7.2915163757033621E-2</v>
+        <f t="shared" ref="H61" si="30">ABS((H40-H19)/H19)</f>
+        <v>2.122819146234E-2</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="12"/>
-        <v>8.1770085610668758E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.1228035391211756E-2</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="11"/>
-        <v>0.15612821512081071</v>
+        <f t="shared" si="14"/>
+        <v>0.15265307434071063</v>
       </c>
     </row>
     <row r="62" spans="6:10" x14ac:dyDescent="0.2">
@@ -4024,20 +10539,20 @@
         <v>2097152</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="12"/>
-        <v>3.031513126816625E-4</v>
+        <f t="shared" si="28"/>
+        <v>2.3624362985926275E-4</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="12"/>
-        <v>4.6953046953046987E-2</v>
+        <f t="shared" ref="H62" si="31">ABS((H41-H20)/H20)</f>
+        <v>1.2217121149936465E-2</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="12"/>
-        <v>9.4818530491925984E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.5071139828755206E-2</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="11"/>
-        <v>9.8058593475562714E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.23098666666666667</v>
       </c>
     </row>
     <row r="63" spans="6:10" x14ac:dyDescent="0.2">
@@ -4045,26 +10560,26 @@
         <v>4194304</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="12"/>
-        <v>-1.9429003184182452E-4</v>
+        <f t="shared" si="28"/>
+        <v>-8.6169290342113735E-5</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="12"/>
-        <v>2.0632162196196981E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.33076212722038117</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="12"/>
-        <v>0.14049342709139809</v>
+        <f t="shared" si="14"/>
+        <v>0.38588849845440787</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="11"/>
-        <v>6.6403211185142447E-2</v>
+        <f t="shared" si="14"/>
+        <v>0.30170254293652915</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>